--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>39_undefined_undefined_undefined_undefinedundefined</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>39_undefined_undefined_undefined_undefinedundefined</v>
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>523_发财果_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01</v>
+        <v>010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>523_发财果_undefined_undefined_1bunch</v>
       </c>
+      <c r="F3" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010</v>
+        <v>0110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0110</v>
+        <v>01100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,10 +464,18 @@
       <c r="C4" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>422_粉黛_pink muhly grass_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -525,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01100</v>
+        <v>011010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -472,6 +472,9 @@
       <c r="C5" t="str">
         <v>422_粉黛_pink muhly grass_undefined_1bunch</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -533,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011010</v>
+        <v>011011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -451,6 +451,9 @@
       <c r="F2" t="str">
         <v>1</v>
       </c>
+      <c r="G2" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
@@ -538,6 +541,9 @@
       <c r="G2" t="str">
         <v>011011</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -454,6 +454,15 @@
       <c r="G2" t="str">
         <v>10</v>
       </c>
+      <c r="H2" t="str">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
@@ -462,6 +471,18 @@
       <c r="F3" t="str">
         <v>10</v>
       </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
@@ -470,6 +491,18 @@
       <c r="F4" t="str">
         <v>1</v>
       </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
@@ -477,6 +510,18 @@
       </c>
       <c r="F5" t="str">
         <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,9 +524,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,10 +592,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011011</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>0110112</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/THUY_2024-10-10.xlsx
+++ b/DateBase/orders/THUY_2024-10-10.xlsx
@@ -531,6 +531,18 @@
       <c r="F6" t="str">
         <v>2</v>
       </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -594,6 +606,9 @@
       <c r="G2" t="str">
         <v>0110112</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
